--- a/podaci.xlsx
+++ b/podaci.xlsx
@@ -24,7 +24,7 @@
     <t>datum</t>
   </si>
   <si>
-    <t>rwage</t>
+    <t>wage</t>
   </si>
 </sst>
 </file>

--- a/podaci.xlsx
+++ b/podaci.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="place" sheetId="1" r:id="rId1"/>
+    <sheet name="krediti" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,19 +20,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
     <t>datum</t>
   </si>
   <si>
     <t>wage</t>
   </si>
+  <si>
+    <t>kred</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _k_n_-;\-* #,##0.00\ _k_n_-;_-* &quot;-&quot;??\ _k_n_-;_-@_-"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -42,6 +49,19 @@
     <font>
       <sz val="9"/>
       <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="238"/>
@@ -73,10 +93,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -87,9 +109,13 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Obično_List1" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -369,8 +395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B265"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2498,4 +2524,647 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B78"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>36891</v>
+      </c>
+      <c r="B2" s="4">
+        <v>12.6380471487909</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>36981</v>
+      </c>
+      <c r="B3" s="4">
+        <v>19.825896976727901</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>37072</v>
+      </c>
+      <c r="B4" s="4">
+        <v>24.127425658119598</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>37164</v>
+      </c>
+      <c r="B5" s="4">
+        <v>25.191583942406599</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>37256</v>
+      </c>
+      <c r="B6" s="4">
+        <v>26.656694170526801</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>37346</v>
+      </c>
+      <c r="B7" s="4">
+        <v>28.436706533466101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>37437</v>
+      </c>
+      <c r="B8" s="4">
+        <v>31.007312671327401</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>37529</v>
+      </c>
+      <c r="B9" s="4">
+        <v>34.987622667216499</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>37621</v>
+      </c>
+      <c r="B10" s="4">
+        <v>36.618046636994102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>37711</v>
+      </c>
+      <c r="B11" s="4">
+        <v>29.8324625101863</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>37802</v>
+      </c>
+      <c r="B12" s="4">
+        <v>22.7458781704429</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>37894</v>
+      </c>
+      <c r="B13" s="4">
+        <v>29.052693734914399</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>37986</v>
+      </c>
+      <c r="B14" s="4">
+        <v>26.7322039034818</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>38077</v>
+      </c>
+      <c r="B15" s="4">
+        <v>28.635882540773999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>38168</v>
+      </c>
+      <c r="B16" s="4">
+        <v>27.5413442797912</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>38260</v>
+      </c>
+      <c r="B17" s="4">
+        <v>18.774597587540399</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>38352</v>
+      </c>
+      <c r="B18" s="4">
+        <v>20.627379201111001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <v>38442</v>
+      </c>
+      <c r="B19" s="4">
+        <v>18.629835871252801</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <v>38533</v>
+      </c>
+      <c r="B20" s="4">
+        <v>22.323277601564801</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <v>38625</v>
+      </c>
+      <c r="B21" s="4">
+        <v>21.252824454166699</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <v>38717</v>
+      </c>
+      <c r="B22" s="4">
+        <v>21.816224494542901</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
+        <v>38807</v>
+      </c>
+      <c r="B23" s="4">
+        <v>24.003688918209999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
+        <v>38898</v>
+      </c>
+      <c r="B24" s="4">
+        <v>25.027041825629301</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
+        <v>38990</v>
+      </c>
+      <c r="B25" s="4">
+        <v>24.739878214055999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
+        <v>39082</v>
+      </c>
+      <c r="B26" s="4">
+        <v>24.930974058091799</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
+        <v>39172</v>
+      </c>
+      <c r="B27" s="4">
+        <v>24.337888316928101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="5">
+        <v>39263</v>
+      </c>
+      <c r="B28" s="4">
+        <v>23.329931776203701</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="5">
+        <v>39355</v>
+      </c>
+      <c r="B29" s="4">
+        <v>21.126745253362401</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="5">
+        <v>39447</v>
+      </c>
+      <c r="B30" s="4">
+        <v>16.222540278397901</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="5">
+        <v>39538</v>
+      </c>
+      <c r="B31" s="4">
+        <v>13.390549315164208</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="5">
+        <v>39629</v>
+      </c>
+      <c r="B32" s="4">
+        <v>10.872020773374217</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="5">
+        <v>39721</v>
+      </c>
+      <c r="B33" s="4">
+        <v>12.041973135024406</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="5">
+        <v>39813</v>
+      </c>
+      <c r="B34" s="4">
+        <v>8.7039305515353931</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="5">
+        <v>39903</v>
+      </c>
+      <c r="B35" s="4">
+        <v>6.5478294595665005</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="5">
+        <v>39994</v>
+      </c>
+      <c r="B36" s="4">
+        <v>3.4683884842165185</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="5">
+        <v>40086</v>
+      </c>
+      <c r="B37" s="4">
+        <v>-0.28058039842994731</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="5">
+        <v>40178</v>
+      </c>
+      <c r="B38" s="4">
+        <v>-0.33655687572895943</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="5">
+        <v>40268</v>
+      </c>
+      <c r="B39" s="4">
+        <v>0.63999509884550321</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="5">
+        <v>40359</v>
+      </c>
+      <c r="B40" s="4">
+        <v>2.0169068936327363</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="5">
+        <v>40451</v>
+      </c>
+      <c r="B41" s="4">
+        <v>3.4382928180565813</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="5">
+        <v>40543</v>
+      </c>
+      <c r="B42" s="4">
+        <v>2.263464407623573</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="5">
+        <v>40633</v>
+      </c>
+      <c r="B43" s="4">
+        <v>2.0821402429715334</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="5">
+        <v>40724</v>
+      </c>
+      <c r="B44" s="4">
+        <v>1.8813782447935523</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="5">
+        <v>40816</v>
+      </c>
+      <c r="B45" s="4">
+        <v>1.9485258562609289</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="5">
+        <v>40908</v>
+      </c>
+      <c r="B46" s="4">
+        <v>3.4904656111675081</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="5">
+        <v>40999</v>
+      </c>
+      <c r="B47" s="4">
+        <v>3.5858524652855976</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="5">
+        <v>41090</v>
+      </c>
+      <c r="B48" s="4">
+        <v>2.1212537292004043</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="5">
+        <v>41182</v>
+      </c>
+      <c r="B49" s="4">
+        <v>0.92266626850106093</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="5">
+        <v>41274</v>
+      </c>
+      <c r="B50" s="4">
+        <v>-1.1882587997532141</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="5">
+        <v>41364</v>
+      </c>
+      <c r="B51" s="4">
+        <v>-1.5941280272353424</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="5">
+        <v>41455</v>
+      </c>
+      <c r="B52" s="4">
+        <v>-0.13619033831960792</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="5">
+        <v>41547</v>
+      </c>
+      <c r="B53" s="4">
+        <v>-0.33567215663687477</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="5">
+        <v>41639</v>
+      </c>
+      <c r="B54" s="4">
+        <v>0.80127183753349129</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="5">
+        <v>41729</v>
+      </c>
+      <c r="B55" s="4">
+        <v>0.3024998421784062</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="5">
+        <v>41820</v>
+      </c>
+      <c r="B56" s="4">
+        <v>-0.99523758808408047</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="5">
+        <v>41912</v>
+      </c>
+      <c r="B57" s="4">
+        <v>-0.89402284902550377</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="5">
+        <v>42004</v>
+      </c>
+      <c r="B58" s="4">
+        <v>-1.49794183246469</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="5">
+        <v>42094</v>
+      </c>
+      <c r="B59" s="4">
+        <v>-1.6046080166230041</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="5">
+        <v>42185</v>
+      </c>
+      <c r="B60" s="4">
+        <v>-1.9168879288737202</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="5">
+        <v>42277</v>
+      </c>
+      <c r="B61" s="4">
+        <v>-1.9763381704152465</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="5">
+        <v>42369</v>
+      </c>
+      <c r="B62" s="4">
+        <v>-2.2821843390586309</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="5">
+        <v>42460</v>
+      </c>
+      <c r="B63" s="4">
+        <v>-0.87373908172831705</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="5">
+        <v>42551</v>
+      </c>
+      <c r="B64" s="4">
+        <v>-0.19383711145928828</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="5">
+        <v>42643</v>
+      </c>
+      <c r="B65" s="4">
+        <v>0.43816731632175276</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="5">
+        <v>42735</v>
+      </c>
+      <c r="B66" s="4">
+        <v>1.1071854037444098</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="5">
+        <v>42825</v>
+      </c>
+      <c r="B67" s="4">
+        <v>0.83939530992257971</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="5">
+        <v>42916</v>
+      </c>
+      <c r="B68" s="4">
+        <v>1.7238004938552933</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="5">
+        <v>43008</v>
+      </c>
+      <c r="B69" s="4">
+        <v>1.8781511318490089</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="5">
+        <v>43100</v>
+      </c>
+      <c r="B70" s="4">
+        <v>2.8526205813892602</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="5">
+        <v>43190</v>
+      </c>
+      <c r="B71" s="4">
+        <v>3.0508764767163967</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="5">
+        <v>43281</v>
+      </c>
+      <c r="B72" s="4">
+        <v>4.1054483670102542</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="5">
+        <v>43373</v>
+      </c>
+      <c r="B73" s="4">
+        <v>4.5564374132871279</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="5">
+        <v>43465</v>
+      </c>
+      <c r="B74" s="4">
+        <v>4.3974496686121682</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="5">
+        <v>43555</v>
+      </c>
+      <c r="B75" s="4">
+        <v>4.5609377229903316</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="5">
+        <v>43646</v>
+      </c>
+      <c r="B76" s="4">
+        <v>3.5782051666062098</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="5">
+        <v>43738</v>
+      </c>
+      <c r="B77" s="4">
+        <v>2.9502087381398918</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="5">
+        <v>43830</v>
+      </c>
+      <c r="B78" s="4">
+        <v>4.1832089500657466</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>